--- a/English/词根词缀.xlsx
+++ b/English/词根词缀.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8460" activeTab="2"/>
+    <workbookView windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="前缀" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
   <si>
     <t xml:space="preserve">  前缀定词义（感情色彩）</t>
   </si>
@@ -42,7 +42,7 @@
     <t>de</t>
   </si>
   <si>
-    <t>向下；重复</t>
+    <t>向下；重复；分</t>
   </si>
   <si>
     <t>e</t>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>ex</t>
+  </si>
+  <si>
+    <t>向外；前往</t>
   </si>
   <si>
     <t>i??</t>
@@ -70,12 +73,30 @@
     <t>medi(中间)；ate(形容词后缀，表示...的)-&gt; immediate 立刻的（没有中间间隔的 - 没有空隙时间的 - 立刻的）</t>
   </si>
   <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>inter</t>
+  </si>
+  <si>
+    <t>在...之间；互相</t>
+  </si>
+  <si>
+    <t>intro</t>
+  </si>
+  <si>
+    <t>向内（抽象）</t>
+  </si>
+  <si>
     <t>neg</t>
   </si>
   <si>
     <t>否定</t>
   </si>
   <si>
+    <t xml:space="preserve">non </t>
+  </si>
+  <si>
     <t>ori</t>
   </si>
   <si>
@@ -91,6 +112,12 @@
     <t>在上，超时</t>
   </si>
   <si>
+    <t>per</t>
+  </si>
+  <si>
+    <t>完全；贯穿</t>
+  </si>
+  <si>
     <t>pre</t>
   </si>
   <si>
@@ -109,6 +136,12 @@
     <t>port(拿)-&gt; report 汇报，报告（把消息、情况等带回来）</t>
   </si>
   <si>
+    <t>retro</t>
+  </si>
+  <si>
+    <t>往回（抽象）</t>
+  </si>
+  <si>
     <t>se</t>
   </si>
   <si>
@@ -121,25 +154,73 @@
     <t>自己</t>
   </si>
   <si>
+    <t>semi</t>
+  </si>
+  <si>
+    <t>半</t>
+  </si>
+  <si>
+    <t>trans</t>
+  </si>
+  <si>
+    <t>通过；改变</t>
+  </si>
+  <si>
     <t>un</t>
   </si>
   <si>
     <t xml:space="preserve">   后缀定词性（名词、形容词、副词...）</t>
   </si>
   <si>
+    <t>able</t>
+  </si>
+  <si>
+    <t>形容词后缀（表能...的）</t>
+  </si>
+  <si>
     <t>al</t>
   </si>
   <si>
     <t>形容词后缀；名词后缀</t>
   </si>
   <si>
+    <t>ance</t>
+  </si>
+  <si>
+    <t>名词后缀；（拉丁语中为现在分词）</t>
+  </si>
+  <si>
+    <t>ant</t>
+  </si>
+  <si>
+    <t>形容词后缀；名词后缀（表人）</t>
+  </si>
+  <si>
+    <t>ate</t>
+  </si>
+  <si>
+    <r>
+      <t>形容词后缀；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动词后缀</t>
+    </r>
+  </si>
+  <si>
     <t>ation</t>
   </si>
   <si>
     <t>复合名词后缀</t>
   </si>
   <si>
-    <t>cr = or</t>
+    <t>cr？ = or</t>
   </si>
   <si>
     <t>名词后缀；形容词后缀</t>
@@ -151,15 +232,30 @@
     <t>形容词；过去式；过去分词</t>
   </si>
   <si>
+    <t>er</t>
+  </si>
+  <si>
     <t xml:space="preserve">ful </t>
   </si>
   <si>
     <t>形容词后缀</t>
   </si>
   <si>
+    <t>ible</t>
+  </si>
+  <si>
+    <t>形容词后缀，表能...的</t>
+  </si>
+  <si>
     <t>ic</t>
   </si>
   <si>
+    <t>ics</t>
+  </si>
+  <si>
+    <t>学术名词后缀</t>
+  </si>
+  <si>
     <t>ing</t>
   </si>
   <si>
@@ -181,6 +277,9 @@
     <t>ist</t>
   </si>
   <si>
+    <t>形容词后缀（cst）；名词后缀（表人）</t>
+  </si>
+  <si>
     <t>ity</t>
   </si>
   <si>
@@ -190,7 +289,13 @@
     <t>ize</t>
   </si>
   <si>
-    <t>动词后缀；表否定</t>
+    <t>动词后缀（表使动）</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>形容词后缀，表否定</t>
   </si>
   <si>
     <t>ly</t>
@@ -199,7 +304,16 @@
     <t>副词后缀</t>
   </si>
   <si>
+    <t>ness</t>
+  </si>
+  <si>
     <t>or</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>名词后缀（表复数）</t>
   </si>
   <si>
     <t>ure</t>
@@ -214,9 +328,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -239,20 +353,6 @@
       <color rgb="FFFFC000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,58 +371,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -333,9 +381,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -356,14 +404,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,25 +494,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -402,49 +516,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,37 +684,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,91 +696,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,15 +707,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -629,17 +734,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,8 +746,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,17 +778,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -693,161 +792,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1204,10 +1321,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1228,7 +1345,7 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
@@ -1267,99 +1384,163 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="1:2">
       <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
         <v>24</v>
       </c>
-      <c r="B34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" t="s">
-        <v>18</v>
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1389,148 +1570,229 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
         <v>54</v>
       </c>
-      <c r="B22" t="s">
-        <v>50</v>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" t="s">
-        <v>41</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/English/词根词缀.xlsx
+++ b/English/词根词缀.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8460"/>
+    <workbookView windowWidth="19560" windowHeight="8460" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="前缀" sheetId="1" r:id="rId1"/>
@@ -16,33 +16,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="144">
   <si>
     <t xml:space="preserve">  前缀定词义（感情色彩）</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>远离</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>强调</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
     <t>anti</t>
   </si>
   <si>
     <t>反</t>
   </si>
   <si>
+    <t>antr</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>在一起；强调</t>
+  </si>
+  <si>
     <t>col</t>
   </si>
   <si>
-    <t>在一起；强调</t>
-  </si>
-  <si>
     <t>com</t>
   </si>
   <si>
-    <t>在一起；强调 = col</t>
+    <t xml:space="preserve">在一起；强调 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">con </t>
+  </si>
+  <si>
+    <t>在一起；强调；</t>
+  </si>
+  <si>
+    <t>counter</t>
   </si>
   <si>
     <t>de</t>
   </si>
   <si>
-    <t>向下；重复；分</t>
+    <t>向下；重复；分离</t>
+  </si>
+  <si>
+    <t>dis</t>
+  </si>
+  <si>
+    <t>分；去除</t>
   </si>
   <si>
     <t>e</t>
@@ -60,8 +96,8 @@
     <t>i??</t>
   </si>
   <si>
-    <t>否定（??代指两个相同的辅音字母）
-；强调</t>
+    <t>否定；强调
+（??代指两个相同的辅音字母）</t>
   </si>
   <si>
     <t>im</t>
@@ -88,13 +124,22 @@
     <t>向内（抽象）</t>
   </si>
   <si>
+    <t>ir</t>
+  </si>
+  <si>
+    <t>否定</t>
+  </si>
+  <si>
+    <t>mis</t>
+  </si>
+  <si>
+    <t>错误</t>
+  </si>
+  <si>
     <t>neg</t>
   </si>
   <si>
-    <t>否定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">non </t>
+    <t>non = none = no one</t>
   </si>
   <si>
     <t>ori</t>
@@ -109,7 +154,7 @@
     <t>over</t>
   </si>
   <si>
-    <t>在上，超时</t>
+    <t>在上；超过</t>
   </si>
   <si>
     <t>per</t>
@@ -118,19 +163,22 @@
     <t>完全；贯穿</t>
   </si>
   <si>
-    <t>pre</t>
-  </si>
-  <si>
-    <t>前</t>
+    <t>pre = pro</t>
+  </si>
+  <si>
+    <t>在前；向前</t>
   </si>
   <si>
     <t>sid(坐)； ent(名词后缀，表示人)-&gt; president 总统， 大学校长（开会时坐在前面的人-&gt; 主事者，指挥者）</t>
   </si>
   <si>
+    <t>pro = pre</t>
+  </si>
+  <si>
     <t>re</t>
   </si>
   <si>
-    <t>往回；重复；</t>
+    <t>往回；重复；再次</t>
   </si>
   <si>
     <t>port(拿)-&gt; report 汇报，报告（把消息、情况等带回来）</t>
@@ -142,6 +190,12 @@
     <t>往回（抽象）</t>
   </si>
   <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>名词后缀</t>
+  </si>
+  <si>
     <t>se</t>
   </si>
   <si>
@@ -160,6 +214,18 @@
     <t>半</t>
   </si>
   <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>向下</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>在上；超级</t>
+  </si>
+  <si>
     <t>trans</t>
   </si>
   <si>
@@ -172,7 +238,7 @@
     <t xml:space="preserve">   后缀定词性（名词、形容词、副词...）</t>
   </si>
   <si>
-    <t>able</t>
+    <t>able = ible</t>
   </si>
   <si>
     <t>形容词后缀（表能...的）</t>
@@ -190,16 +256,32 @@
     <t>名词后缀；（拉丁语中为现在分词）</t>
   </si>
   <si>
+    <t>ancy</t>
+  </si>
+  <si>
     <t>ant</t>
   </si>
   <si>
     <t>形容词后缀；名词后缀（表人）</t>
   </si>
   <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>ary = ory</t>
+  </si>
+  <si>
     <t>ate</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>形容词后缀；</t>
     </r>
     <r>
@@ -220,19 +302,64 @@
     <t>复合名词后缀</t>
   </si>
   <si>
-    <t>cr？ = or</t>
+    <t>ce</t>
+  </si>
+  <si>
+    <t>名词后缀（表被动）</t>
+  </si>
+  <si>
+    <t>cr = or</t>
   </si>
   <si>
     <t>名词后缀；形容词后缀</t>
   </si>
   <si>
+    <t>cst</t>
+  </si>
+  <si>
+    <t>形容词后缀？</t>
+  </si>
+  <si>
+    <r>
+      <t>名词后缀；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动词后缀</t>
+    </r>
+  </si>
+  <si>
     <t>ed</t>
   </si>
   <si>
     <t>形容词；过去式；过去分词</t>
   </si>
   <si>
-    <t>er</t>
+    <t>ence</t>
+  </si>
+  <si>
+    <t>ent</t>
+  </si>
+  <si>
+    <t>er = or</t>
+  </si>
+  <si>
+    <t>ess</t>
+  </si>
+  <si>
+    <t>名词后缀（表女性）</t>
+  </si>
+  <si>
+    <t>ette</t>
+  </si>
+  <si>
+    <t>名词后缀（表小）</t>
   </si>
   <si>
     <t xml:space="preserve">ful </t>
@@ -241,15 +368,18 @@
     <t>形容词后缀</t>
   </si>
   <si>
-    <t>ible</t>
-  </si>
-  <si>
-    <t>形容词后缀，表能...的</t>
+    <t>ible = able</t>
   </si>
   <si>
     <t>ic</t>
   </si>
   <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>icle</t>
+  </si>
+  <si>
     <t>ics</t>
   </si>
   <si>
@@ -265,7 +395,13 @@
     <t>ion</t>
   </si>
   <si>
-    <t>名词后缀</t>
+    <t>ise = ize</t>
+  </si>
+  <si>
+    <t>动词后缀（表使动）</t>
+  </si>
+  <si>
+    <t>ish</t>
   </si>
   <si>
     <t>ism</t>
@@ -274,22 +410,28 @@
     <t>名词后缀，表...主义</t>
   </si>
   <si>
-    <t>ist</t>
+    <t>ist = cst</t>
   </si>
   <si>
     <t>形容词后缀（cst）；名词后缀（表人）</t>
   </si>
   <si>
+    <t>ite</t>
+  </si>
+  <si>
+    <t>itude</t>
+  </si>
+  <si>
     <t>ity</t>
   </si>
   <si>
     <t>ive</t>
   </si>
   <si>
-    <t>ize</t>
-  </si>
-  <si>
-    <t>动词后缀（表使动）</t>
+    <t>iye</t>
+  </si>
+  <si>
+    <t>ize = ise</t>
   </si>
   <si>
     <t>less</t>
@@ -304,16 +446,34 @@
     <t>副词后缀</t>
   </si>
   <si>
+    <t>ment</t>
+  </si>
+  <si>
+    <t>ner</t>
+  </si>
+  <si>
     <t>ness</t>
   </si>
   <si>
-    <t>or</t>
-  </si>
-  <si>
-    <t>s</t>
+    <t>o</t>
+  </si>
+  <si>
+    <t>or = er</t>
+  </si>
+  <si>
+    <t>ory = ary</t>
+  </si>
+  <si>
+    <t>ous</t>
   </si>
   <si>
     <t>名词后缀（表复数）</t>
+  </si>
+  <si>
+    <t>ship</t>
+  </si>
+  <si>
+    <t>名词后缀（表抽象含义）</t>
   </si>
   <si>
     <t>ure</t>
@@ -328,11 +488,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,9 +510,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFFC000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,6 +567,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -381,6 +584,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -404,7 +615,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,36 +629,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,37 +666,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -499,13 +673,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -516,13 +683,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,169 +851,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,6 +874,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -736,9 +918,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,19 +930,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,17 +951,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -815,10 +982,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -827,137 +994,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -968,6 +1135,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1321,15 +1494,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="1" max="1" width="23.625" customWidth="1"/>
+    <col min="2" max="2" width="30.75" customWidth="1"/>
     <col min="3" max="3" width="101.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1338,209 +1512,321 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" ht="40.5" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" ht="27" spans="1:2">
       <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>25</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" t="s">
-        <v>48</v>
+      <c r="A46" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1570,10 +1856,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1584,215 +1870,399 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" t="s">
-        <v>64</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" t="s">
-        <v>64</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" t="s">
-        <v>86</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" t="s">
-        <v>78</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>93</v>
-      </c>
-      <c r="B49" t="s">
-        <v>94</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>95</v>
-      </c>
-      <c r="B52" t="s">
-        <v>96</v>
+        <v>127</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/English/词根词缀.xlsx
+++ b/English/词根词缀.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8460" activeTab="2"/>
+    <workbookView windowWidth="17055" windowHeight="12195" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="前缀" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="144">
-  <si>
-    <t xml:space="preserve">  前缀定词义（感情色彩）</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="148">
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前缀定词义（感情色彩）</t>
+    </r>
   </si>
   <si>
     <t>a</t>
@@ -235,7 +254,72 @@
     <t>un</t>
   </si>
   <si>
-    <t xml:space="preserve">   后缀定词性（名词、形容词、副词...）</t>
+    <t>词根</t>
+  </si>
+  <si>
+    <t>lect</t>
+  </si>
+  <si>
+    <t>收；收集；集合；读；说；辩论；法律；法制</t>
+  </si>
+  <si>
+    <t>e-向外:elect adj./n./v./：选出的，当选的，卓越的，被选的人，特殊阶层；选举，推选，做出选择，进行选举；
+co- col- 在一起；强调:collect v./adv./adj.：收集，募捐，聚集，由收件人付款的（地）； 
+se-分：select v./adj./n.：挑选，选拔，精选的，被挑选者，精粹；
+neg-否定：neglect vt./n.：疏忽，忽视，忽略，怠慢；</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后缀定词性（名词、形容词、副词</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>...</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
   </si>
   <si>
     <t>able = ible</t>
@@ -321,6 +405,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>名词后缀；</t>
     </r>
     <r>
@@ -487,12 +578,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,6 +593,21 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -510,17 +616,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -531,14 +637,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,11 +680,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -567,8 +733,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,6 +757,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,86 +782,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -683,19 +796,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,163 +886,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,21 +987,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -916,26 +1014,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -947,6 +1025,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -974,6 +1076,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -982,10 +1095,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -994,153 +1107,165 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1494,26 +1619,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="23.625" customWidth="1"/>
+    <col min="1" max="1" width="23.625" style="7" customWidth="1"/>
     <col min="2" max="2" width="30.75" customWidth="1"/>
     <col min="3" max="3" width="101.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="40" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1521,7 +1646,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -1529,7 +1654,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
@@ -1537,16 +1662,16 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
@@ -1554,7 +1679,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
@@ -1562,7 +1687,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
@@ -1570,7 +1695,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
@@ -1578,7 +1703,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
@@ -1586,7 +1711,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
@@ -1594,7 +1719,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
@@ -1602,7 +1727,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
@@ -1610,7 +1735,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
@@ -1618,214 +1743,214 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" ht="27" spans="1:2">
-      <c r="A22" t="s">
+    <row r="20" ht="27" spans="1:2">
+      <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B20" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C21" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>28</v>
+      <c r="A26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>31</v>
+      <c r="A27" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>35</v>
+      <c r="A29" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="B29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>39</v>
+    <row r="32" spans="1:2">
+      <c r="A32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>40</v>
+      <c r="A35" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="C41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" t="s">
-        <v>58</v>
+      <c r="A46" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>59</v>
+      <c r="A49" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>61</v>
+      <c r="A50" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>67</v>
+      <c r="A54" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>69</v>
-      </c>
-      <c r="B56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>71</v>
-      </c>
-      <c r="B59" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1839,14 +1964,36 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="37.875" customWidth="1"/>
+    <col min="3" max="3" width="87" customWidth="1"/>
+    <col min="4" max="4" width="28.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" ht="67.5" spans="1:3">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1858,411 +2005,411 @@
   <sheetPr/>
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>72</v>
+      <c r="A1" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>73</v>
+      <c r="A2" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>75</v>
+      <c r="A3" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>77</v>
+      <c r="A4" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>79</v>
+      <c r="A5" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
         <v>80</v>
       </c>
-      <c r="B6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>83</v>
+      <c r="A8" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>85</v>
+      <c r="A9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>86</v>
+      <c r="A10" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>88</v>
+      <c r="A12" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>90</v>
+      <c r="A13" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>92</v>
+      <c r="A14" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>94</v>
+      <c r="B16" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>95</v>
+      <c r="A17" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>97</v>
+      <c r="A18" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>98</v>
+      <c r="A19" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>99</v>
+      <c r="A20" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>100</v>
+      <c r="A21" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>102</v>
+      <c r="A22" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>104</v>
+      <c r="A24" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>106</v>
+      <c r="A28" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>107</v>
+      <c r="A29" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>108</v>
+      <c r="A30" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B30" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>109</v>
+      <c r="A31" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="B31" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>110</v>
+      <c r="A34" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>112</v>
+      <c r="A35" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>114</v>
+      <c r="A37" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B37" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>116</v>
+      <c r="A39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>94</v>
+      <c r="A40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>118</v>
+      <c r="A41" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>120</v>
+      <c r="A42" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>122</v>
+      <c r="A44" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>123</v>
+      <c r="A47" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="B47" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>124</v>
+      <c r="A48" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="B48" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>125</v>
+      <c r="A50" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="B50" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>126</v>
+      <c r="A51" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>127</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>116</v>
+      <c r="A52" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>128</v>
+      <c r="A56" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="B56" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>130</v>
+      <c r="A57" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="B57" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>132</v>
+      <c r="A59" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="B59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>133</v>
+      <c r="A61" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="B61" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>134</v>
+      <c r="A62" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="B62" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>135</v>
+      <c r="A64" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="B64" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>136</v>
+      <c r="A65" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="B65" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>137</v>
+      <c r="A66" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>138</v>
+      <c r="A67" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="B67" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" t="s">
+      <c r="A69" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B69" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>140</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>141</v>
+      <c r="A70" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>142</v>
+      <c r="A72" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B72" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/English/词根词缀.xlsx
+++ b/English/词根词缀.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17055" windowHeight="12195" activeTab="1"/>
+    <workbookView windowWidth="17475" windowHeight="7560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="前缀" sheetId="1" r:id="rId1"/>
@@ -501,7 +501,7 @@
     <t>名词后缀，表...主义</t>
   </si>
   <si>
-    <t>ist = cst</t>
+    <t xml:space="preserve">ist </t>
   </si>
   <si>
     <t>形容词后缀（cst）；名词后缀（表人）</t>
@@ -578,10 +578,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -643,8 +643,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,14 +660,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -680,8 +712,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,91 +782,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -796,187 +796,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,78 +987,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1079,6 +1007,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1087,6 +1054,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1095,10 +1095,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1107,137 +1107,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1267,9 +1267,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1754,7 +1751,7 @@
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1966,8 +1963,8 @@
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -2005,8 +2002,8 @@
   <sheetPr/>
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>

--- a/English/词根词缀.xlsx
+++ b/English/词根词缀.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17475" windowHeight="7560" activeTab="2"/>
+    <workbookView windowWidth="15330" windowHeight="12270" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="前缀" sheetId="1" r:id="rId1"/>
     <sheet name="词根" sheetId="2" r:id="rId2"/>
     <sheet name="后缀" sheetId="3" r:id="rId3"/>
+    <sheet name="专有词" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="170">
   <si>
     <r>
       <rPr>
@@ -149,10 +150,15 @@
     <t>否定</t>
   </si>
   <si>
-    <t>mis</t>
-  </si>
-  <si>
-    <t>错误</t>
+    <t>mis-</t>
+  </si>
+  <si>
+    <t>错误； 否定；小；</t>
+  </si>
+  <si>
+    <t>1. from mes-(a e i o u 元音转化 e-&gt;i) "bad, badly, wrong, wrongly;"
+2. from minus "less"(from suffixed form of PIE root *mei- "small")
+3. mis-  miss-</t>
   </si>
   <si>
     <t>neg</t>
@@ -176,12 +182,17 @@
     <t>在上；超过</t>
   </si>
   <si>
-    <t>per</t>
+    <t>par = per</t>
   </si>
   <si>
     <t>完全；贯穿</t>
   </si>
   <si>
+    <t>1. from Latin per "through, during, by means of, on account of, as in"
+2. from PIE root *per- "forward,through, in front of, before, first, chief, toward, near, around, against." 
+permission-</t>
+  </si>
+  <si>
     <t>pre = pro</t>
   </si>
   <si>
@@ -249,6 +260,9 @@
   </si>
   <si>
     <t>通过；改变</t>
+  </si>
+  <si>
+    <t>translate: 翻译；（使）转变；转化；</t>
   </si>
   <si>
     <t>un</t>
@@ -486,6 +500,11 @@
     <t>ion</t>
   </si>
   <si>
+    <t xml:space="preserve">from Greek ion, neuter present participle of ienai "go"
+form PIE root *ei- "to go" 
+So called because ions move toward the electrode of opposite charge. </t>
+  </si>
+  <si>
     <t>ise = ize</t>
   </si>
   <si>
@@ -571,6 +590,60 @@
   </si>
   <si>
     <t>动词后缀；名词后缀</t>
+  </si>
+  <si>
+    <t>Greek</t>
+  </si>
+  <si>
+    <t>希腊语； 希腊人； 希腊的； 希腊语的；希腊人的；</t>
+  </si>
+  <si>
+    <t>Indo-European</t>
+  </si>
+  <si>
+    <t>印欧语系</t>
+  </si>
+  <si>
+    <t>Latin</t>
+  </si>
+  <si>
+    <t>拉丁语；拉丁人；拉丁的...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Dutch </t>
+  </si>
+  <si>
+    <t>中古荷兰语</t>
+  </si>
+  <si>
+    <t>Old High German</t>
+  </si>
+  <si>
+    <t>古高地德语</t>
+  </si>
+  <si>
+    <t>Roman</t>
+  </si>
+  <si>
+    <t>罗马</t>
+  </si>
+  <si>
+    <t>Judaea</t>
+  </si>
+  <si>
+    <t>犹太（古代罗马所统治的一个地名）</t>
+  </si>
+  <si>
+    <t>Proto-Germanic</t>
+  </si>
+  <si>
+    <t>原始日耳曼语</t>
+  </si>
+  <si>
+    <t>slang</t>
+  </si>
+  <si>
+    <t>俚语</t>
   </si>
 </sst>
 </file>
@@ -636,13 +709,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -697,13 +763,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -759,14 +818,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -780,6 +839,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -796,6 +869,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -820,66 +1043,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -887,96 +1050,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,10 +1168,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1107,133 +1180,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1250,14 +1323,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1618,14 +1691,14 @@
   <sheetPr/>
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="23.625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="30.75" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
     <col min="3" max="3" width="101.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1747,11 +1820,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" ht="27" spans="1:2">
+    <row r="20" ht="40.5" spans="1:2">
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1786,7 +1859,7 @@
       <c r="A26" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1798,17 +1871,20 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" ht="40.5" spans="1:3">
       <c r="A29" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B29" t="s">
         <v>38</v>
       </c>
+      <c r="C29" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
@@ -1816,7 +1892,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
         <v>36</v>
@@ -1824,128 +1900,134 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" ht="54" spans="1:3">
       <c r="A37" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" t="s">
         <v>51</v>
-      </c>
-      <c r="B39" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="C52" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
         <v>36</v>
@@ -1976,18 +2058,18 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" ht="67.5" spans="1:3">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2000,13 +2082,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.5" customWidth="1"/>
@@ -2014,103 +2096,103 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2118,295 +2200,298 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" ht="324" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>120</v>
+        <v>135</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B57" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B65" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B67" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B69" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B72" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2414,4 +2499,96 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A3:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/English/词根词缀.xlsx
+++ b/English/词根词缀.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15330" windowHeight="12270" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="前缀" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="171">
   <si>
     <r>
       <rPr>
@@ -191,6 +191,9 @@
     <t>1. from Latin per "through, during, by means of, on account of, as in"
 2. from PIE root *per- "forward,through, in front of, before, first, chief, toward, near, around, against." 
 permission-</t>
+  </si>
+  <si>
+    <t>comparable</t>
   </si>
   <si>
     <t>pre = pro</t>
@@ -651,10 +654,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -709,16 +712,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -726,7 +728,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,14 +756,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -757,31 +765,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -804,28 +795,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -839,15 +824,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -869,175 +872,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,80 +1063,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1155,8 +1084,82 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1168,10 +1171,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1180,133 +1183,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1689,17 +1692,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="23.625" style="7" customWidth="1"/>
     <col min="2" max="2" width="21.125" customWidth="1"/>
     <col min="3" max="3" width="101.75" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="40" customHeight="1" spans="1:1">
@@ -1917,7 +1921,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" ht="54" spans="1:3">
+    <row r="37" ht="54" spans="1:4">
       <c r="A37" s="7" t="s">
         <v>47</v>
       </c>
@@ -1927,107 +1931,110 @@
       <c r="C37" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
         <v>36</v>
@@ -2058,18 +2065,18 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" ht="67.5" spans="1:3">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2096,103 +2103,103 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2200,298 +2207,298 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" ht="324" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B56" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B57" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B67" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B69" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B72" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2506,7 +2513,7 @@
   <sheetPr/>
   <dimension ref="A3:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2517,74 +2524,74 @@
   <sheetData>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/English/词根词缀.xlsx
+++ b/English/词根词缀.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="10245" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="前缀" sheetId="1" r:id="rId1"/>
@@ -721,6 +721,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -741,26 +749,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -772,30 +765,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -824,11 +809,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -842,22 +858,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -872,43 +872,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,138 +1053,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,35 +1066,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1124,16 +1102,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1153,13 +1140,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1171,10 +1171,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1183,133 +1183,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1694,7 +1694,7 @@
   <sheetPr/>
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -2091,14 +2091,15 @@
   <sheetPr/>
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="3" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:1">
@@ -2314,7 +2315,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" ht="324" spans="1:3">
+    <row r="37" ht="66" customHeight="1" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>122</v>
       </c>

--- a/English/词根词缀.xlsx
+++ b/English/词根词缀.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10245" windowHeight="7590"/>
+    <workbookView windowWidth="20325" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="前缀" sheetId="1" r:id="rId1"/>
@@ -17,61 +17,83 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="171">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="177">
+  <si>
+    <t xml:space="preserve">  前缀定词义（感情色彩）</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>远离</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>强调</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>anti</t>
+  </si>
+  <si>
+    <t>反</t>
+  </si>
+  <si>
+    <t>antr</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>在一起；强调</t>
+  </si>
+  <si>
+    <t>col</t>
+  </si>
+  <si>
+    <r>
+      <t>collapse: col</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>共同，一起</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Verdana"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t>-laps-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>前缀定词义（感情色彩）</t>
-    </r>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>远离</t>
-  </si>
-  <si>
-    <t>ab</t>
-  </si>
-  <si>
-    <t>强调</t>
-  </si>
-  <si>
-    <t>ad</t>
-  </si>
-  <si>
-    <t>anti</t>
-  </si>
-  <si>
-    <t>反</t>
-  </si>
-  <si>
-    <t>antr</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>在一起；强调</t>
-  </si>
-  <si>
-    <t>col</t>
+      <t>滑，落</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-e v./n.</t>
+    </r>
   </si>
   <si>
     <t>com</t>
@@ -126,7 +148,126 @@
     <t>否定；向内；强调</t>
   </si>
   <si>
-    <t>medi(中间)；ate(形容词后缀，表示...的)-&gt; immediate 立刻的（没有中间间隔的 - 没有空隙时间的 - 立刻的）</t>
+    <r>
+      <t>medi(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ate(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>形容词后缀，表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">)-&gt; immediate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>立刻的（没有中间间隔的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有空隙时间的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>立刻的）</t>
+    </r>
   </si>
   <si>
     <t>in</t>
@@ -156,9 +297,29 @@
     <t>错误； 否定；小；</t>
   </si>
   <si>
-    <t>1. from mes-(a e i o u 元音转化 e-&gt;i) "bad, badly, wrong, wrongly;"
+    <r>
+      <t xml:space="preserve">1. from mes-(a e i o u </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元音转化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> e-&gt;i) "bad, badly, wrong, wrongly;"
 2. from minus "less"(from suffixed form of PIE root *mei- "small")
 3. mis-  miss-</t>
+    </r>
   </si>
   <si>
     <t>neg</t>
@@ -173,7 +334,36 @@
     <t>升起</t>
   </si>
   <si>
-    <t>ent(名词后缀)-&gt; orient 东方（太阳升起的地方）</t>
+    <r>
+      <t>ent(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名词后缀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">)-&gt; orient </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>东方（太阳升起的地方）</t>
+    </r>
   </si>
   <si>
     <t>over</t>
@@ -202,7 +392,108 @@
     <t>在前；向前</t>
   </si>
   <si>
-    <t>sid(坐)； ent(名词后缀，表示人)-&gt; president 总统， 大学校长（开会时坐在前面的人-&gt; 主事者，指挥者）</t>
+    <r>
+      <t>sid(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ent(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名词后缀，表示人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">)-&gt; president </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总统，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大学校长（开会时坐在前面的人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">-&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主事者，指挥者）</t>
+    </r>
   </si>
   <si>
     <t>pro = pre</t>
@@ -214,7 +505,36 @@
     <t>往回；重复；再次</t>
   </si>
   <si>
-    <t>port(拿)-&gt; report 汇报，报告（把消息、情况等带回来）</t>
+    <r>
+      <t>port(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">)-&gt; report </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汇报，报告（把消息、情况等带回来）</t>
+    </r>
   </si>
   <si>
     <t>retro</t>
@@ -265,13 +585,39 @@
     <t>通过；改变</t>
   </si>
   <si>
-    <t>translate: 翻译；（使）转变；转化；</t>
+    <r>
+      <t xml:space="preserve">translate: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>翻译；（使）转变；转化；</t>
+    </r>
   </si>
   <si>
     <t>un</t>
   </si>
   <si>
     <t>词根</t>
+  </si>
+  <si>
+    <t>ked/ced</t>
+  </si>
+  <si>
+    <t>to go,yield.</t>
+  </si>
+  <si>
+    <t>laps/labi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to fall, slip 滑，落</t>
+  </si>
+  <si>
+    <t>collapse: col共同，一起-laps-滑，落-e v./n.</t>
   </si>
   <si>
     <t>lect</t>
@@ -292,7 +638,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
@@ -302,40 +648,10 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>后缀定词性（名词、形容词、副词</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>...</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 后缀定词性（名词、形容词、副词...）</t>
     </r>
   </si>
   <si>
@@ -654,12 +970,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -680,7 +996,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Verdana"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -699,127 +1015,34 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
       <name val="Verdana"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFC000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -842,7 +1065,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,8 +1146,47 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -872,31 +1200,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,151 +1368,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,26 +1391,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1125,21 +1433,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1159,6 +1452,41 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -1171,10 +1499,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1183,137 +1511,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1335,14 +1663,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1694,25 +2040,25 @@
   <sheetPr/>
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="23.625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="23.625" style="10" customWidth="1"/>
     <col min="2" max="2" width="21.125" customWidth="1"/>
-    <col min="3" max="3" width="101.75" customWidth="1"/>
+    <col min="3" max="3" width="101.75" style="11" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="40" customHeight="1" spans="1:1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1720,7 +2066,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -1728,7 +2074,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
@@ -1736,16 +2082,16 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
@@ -1753,291 +2099,294 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
+      <c r="C9" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="7" t="s">
-        <v>12</v>
+      <c r="A10" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="7" t="s">
-        <v>14</v>
+      <c r="A11" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="7" t="s">
-        <v>16</v>
+      <c r="A12" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="7" t="s">
-        <v>17</v>
+      <c r="A14" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="7" t="s">
-        <v>19</v>
+      <c r="A15" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="7" t="s">
-        <v>21</v>
+      <c r="A17" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="7" t="s">
-        <v>23</v>
+      <c r="A18" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="40.5" spans="1:2">
-      <c r="A20" s="7" t="s">
-        <v>25</v>
+      <c r="A20" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="7" t="s">
-        <v>27</v>
+      <c r="A21" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s">
         <v>29</v>
       </c>
+      <c r="C21" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="7" t="s">
-        <v>30</v>
+      <c r="A24" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="7" t="s">
-        <v>31</v>
+      <c r="A25" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="7" t="s">
-        <v>33</v>
+      <c r="A26" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="7" t="s">
-        <v>35</v>
+      <c r="A27" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" ht="40.5" spans="1:3">
-      <c r="A29" s="7" t="s">
         <v>37</v>
       </c>
+    </row>
+    <row r="29" ht="42.75" spans="1:3">
+      <c r="A29" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="B29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="C29" s="15" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="7" t="s">
-        <v>40</v>
+      <c r="A31" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="7" t="s">
-        <v>41</v>
+      <c r="A32" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="7" t="s">
-        <v>42</v>
+      <c r="A34" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" t="s">
         <v>44</v>
       </c>
+      <c r="C34" s="14" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="7" t="s">
-        <v>45</v>
+      <c r="A35" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" ht="54" spans="1:4">
-      <c r="A37" s="7" t="s">
         <v>47</v>
       </c>
+    </row>
+    <row r="37" ht="42.75" spans="1:4">
+      <c r="A37" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="B37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="C37" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="7" t="s">
-        <v>51</v>
+      <c r="A38" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" t="s">
         <v>53</v>
       </c>
+      <c r="C38" s="14" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="7" t="s">
-        <v>54</v>
+      <c r="A39" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="7" t="s">
-        <v>55</v>
+      <c r="A41" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" t="s">
         <v>57</v>
       </c>
+      <c r="C41" s="14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="7" t="s">
-        <v>58</v>
+      <c r="A42" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="7" t="s">
-        <v>60</v>
+      <c r="A44" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="7" t="s">
-        <v>62</v>
+      <c r="A45" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="7" t="s">
-        <v>64</v>
+      <c r="A46" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="7" t="s">
-        <v>66</v>
+      <c r="A47" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="7" t="s">
-        <v>68</v>
+      <c r="A49" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="7" t="s">
-        <v>70</v>
+      <c r="A50" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="7" t="s">
-        <v>72</v>
+      <c r="A52" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" t="s">
         <v>74</v>
       </c>
+      <c r="C52" s="14" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="7" t="s">
-        <v>75</v>
+      <c r="A54" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2050,33 +2399,53 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="B1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="37.875" customWidth="1"/>
-    <col min="3" max="3" width="87" customWidth="1"/>
-    <col min="4" max="4" width="28.75" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="37.875" customWidth="1"/>
+    <col min="4" max="4" width="87" customWidth="1"/>
+    <col min="5" max="5" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" ht="67.5" spans="1:3">
-      <c r="A4" t="s">
+    <row r="1" ht="15" spans="2:2">
+      <c r="B1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" ht="67.5" spans="2:4">
+      <c r="B9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2092,414 +2461,417 @@
   <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="3" width="32.625" customWidth="1"/>
+    <col min="3" max="3" width="38.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s">
         <v>90</v>
-      </c>
-      <c r="B7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" ht="66" customHeight="1" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B42" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B56" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B57" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B65" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B66" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B67" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B69" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B72" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2525,74 +2897,74 @@
   <sheetData>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
